--- a/data/exponential_gpr_linear_results.xlsx
+++ b/data/exponential_gpr_linear_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05278</v>
+        <v>0.062976</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02319</v>
+        <v>0.006963</v>
       </c>
       <c r="C2" t="n">
-        <v>10.343922</v>
+        <v>15.465903</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
